--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/C/20/seed2/result_data_KNN.xlsx
@@ -477,7 +477,7 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-12.584</v>
+        <v>-12.822</v>
       </c>
       <c r="D3" t="n">
         <v>-8.949999999999999</v>
@@ -631,7 +631,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-13.528</v>
+        <v>-12.592</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -659,7 +659,7 @@
         <v>3.96</v>
       </c>
       <c r="C16" t="n">
-        <v>-13.33</v>
+        <v>-12.993</v>
       </c>
       <c r="D16" t="n">
         <v>-9.27</v>
@@ -729,7 +729,7 @@
         <v>9.52</v>
       </c>
       <c r="C21" t="n">
-        <v>-13.056</v>
+        <v>-12.842</v>
       </c>
       <c r="D21" t="n">
         <v>-6.74</v>
@@ -757,7 +757,7 @@
         <v>7.87</v>
       </c>
       <c r="C23" t="n">
-        <v>-12.016</v>
+        <v>-12.68</v>
       </c>
       <c r="D23" t="n">
         <v>-8.59</v>
@@ -785,7 +785,7 @@
         <v>5.23</v>
       </c>
       <c r="C25" t="n">
-        <v>-11.516</v>
+        <v>-11.549</v>
       </c>
       <c r="D25" t="n">
         <v>-7.4</v>
@@ -799,7 +799,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-11.502</v>
+        <v>-12.35</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -841,7 +841,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-12.024</v>
+        <v>-12.378</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -995,7 +995,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-11.46</v>
+        <v>-12.426</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1177,7 +1177,7 @@
         <v>5.82</v>
       </c>
       <c r="C53" t="n">
-        <v>-12.29</v>
+        <v>-12.19</v>
       </c>
       <c r="D53" t="n">
         <v>-7.23</v>
@@ -1233,7 +1233,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.742</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1261,7 +1261,7 @@
         <v>4.58</v>
       </c>
       <c r="C59" t="n">
-        <v>-12.006</v>
+        <v>-12.679</v>
       </c>
       <c r="D59" t="n">
         <v>-9.48</v>
@@ -1345,7 +1345,7 @@
         <v>6.69</v>
       </c>
       <c r="C65" t="n">
-        <v>-12.5</v>
+        <v>-12.002</v>
       </c>
       <c r="D65" t="n">
         <v>-7.07</v>
@@ -1401,7 +1401,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-10.478</v>
+        <v>-10.613</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1541,7 +1541,7 @@
         <v>8.949999999999999</v>
       </c>
       <c r="C79" t="n">
-        <v>-12.858</v>
+        <v>-12.403</v>
       </c>
       <c r="D79" t="n">
         <v>-4.8</v>
@@ -1597,7 +1597,7 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.08</v>
+        <v>-13.345</v>
       </c>
       <c r="D83" t="n">
         <v>-7.67</v>
@@ -1709,7 +1709,7 @@
         <v>7.49</v>
       </c>
       <c r="C91" t="n">
-        <v>-13.054</v>
+        <v>-12.385</v>
       </c>
       <c r="D91" t="n">
         <v>-8.890000000000001</v>
@@ -1737,7 +1737,7 @@
         <v>4.28</v>
       </c>
       <c r="C93" t="n">
-        <v>-10.186</v>
+        <v>-10.281</v>
       </c>
       <c r="D93" t="n">
         <v>-5.79</v>
@@ -1835,7 +1835,7 @@
         <v>4.73</v>
       </c>
       <c r="C100" t="n">
-        <v>-11.668</v>
+        <v>-12.291</v>
       </c>
       <c r="D100" t="n">
         <v>-9.33</v>
@@ -1877,7 +1877,7 @@
         <v>5.09</v>
       </c>
       <c r="C103" t="n">
-        <v>-12.06</v>
+        <v>-12.155</v>
       </c>
       <c r="D103" t="n">
         <v>-7.71</v>
